--- a/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -301,10 +301,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -2191,13 +2191,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>81</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Solicitude de Medicamento LE</t>
+    <t>Solicitud de Medicamento LE</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-MedicationRequestLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -374,7 +374,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -561,7 +561,7 @@
     <t>Identifies the reasons for a given status.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -616,7 +616,7 @@
     <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category|4.0.1</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -676,7 +676,7 @@
   </si>
   <si>
     <t>boolean
-Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)</t>
+Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)</t>
   </si>
   <si>
     <t>Reported rather than primary record</t>
@@ -692,7 +692,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Medication)</t>
+Reference(Medication|4.0.1)</t>
   </si>
   <si>
     <t>Medicamento</t>
@@ -707,7 +707,7 @@
     <t>A coded concept identifying substance or product that can be ordered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -795,7 +795,7 @@
     <t>MedicationRequest.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>MedicationRequest.requester</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -861,7 +861,7 @@
     <t>MedicationRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -895,7 +895,7 @@
     <t>Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -907,7 +907,7 @@
     <t>MedicationRequest.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -938,7 +938,7 @@
     <t>A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -959,7 +959,7 @@
     <t>MedicationRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1009,7 +1009,7 @@
     <t>MedicationRequest.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|MedicationRequest|ServiceRequest|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|MedicationRequest|4.0.1|ServiceRequest|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1058,7 +1058,7 @@
     <t>Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy|4.0.1</t>
   </si>
   <si>
     <t>Act.code where classCode = LIST and moodCode = EVN</t>
@@ -1067,7 +1067,7 @@
     <t>MedicationRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1146,7 +1146,7 @@
     <t>MedicationRequest.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1290,7 +1290,7 @@
     <t>MedicationRequest.dispenseRequest.initialFill.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1417,7 +1417,7 @@
     <t>MedicationRequest.dispenseRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1509,7 +1509,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1532,7 +1532,7 @@
 Drug Utilization Review (DUR)Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DetectedIssue)
+    <t xml:space="preserve">Reference(DetectedIssue|4.0.1)
 </t>
   </si>
   <si>
@@ -1551,7 +1551,7 @@
     <t>MedicationRequest.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -1896,17 +1896,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.33203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.05078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="53.05078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="88.40625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="113.71875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1915,27 +1915,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="155.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="57.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.93359375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="140.703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="63.33203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="52.43359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="131.0546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="248.7734375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="112.83984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
